--- a/Life Expectancy.xlsx
+++ b/Life Expectancy.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tushaar/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2597BF53-3920-714D-BA89-BC623253BA0B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE30028C-96CB-FD46-B05E-5110B880225D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12760" yWindow="1500" windowWidth="27640" windowHeight="15440" xr2:uid="{E402BFD2-5976-F44B-9383-F5F747F72A41}"/>
+    <workbookView xWindow="11500" yWindow="1460" windowWidth="17140" windowHeight="14480" activeTab="1" xr2:uid="{E402BFD2-5976-F44B-9383-F5F747F72A41}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Life Expectancy" sheetId="1" r:id="rId1"/>
+    <sheet name="Best Cities" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+  <si>
+    <t>Life Expectancy</t>
+  </si>
   <si>
     <t>Life Expectancy - Decade</t>
   </si>
@@ -34,13 +38,67 @@
   </si>
   <si>
     <t>Female</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitudue</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Sardinia</t>
+  </si>
+  <si>
+    <t>Okinawa</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Nicoya</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Loma Linda, Californa</t>
+  </si>
+  <si>
+    <t>Ikaria</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>100+</t>
+  </si>
+  <si>
+    <t>90+</t>
+  </si>
+  <si>
+    <t>95+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -212,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -226,15 +284,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -242,6 +291,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -560,9 +624,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761D5B47-5236-3943-8664-C65A64E50F3D}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" style="1" customWidth="1"/>
@@ -570,18 +634,18 @@
     <col min="4" max="16384" width="7.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1900</v>
       </c>
@@ -592,7 +656,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1910</v>
       </c>
@@ -603,7 +667,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1920</v>
       </c>
@@ -614,7 +678,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1930</v>
       </c>
@@ -625,7 +689,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1940</v>
       </c>
@@ -636,7 +700,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1950</v>
       </c>
@@ -647,7 +711,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1960</v>
       </c>
@@ -658,7 +722,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1970</v>
       </c>
@@ -669,7 +733,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1980</v>
       </c>
@@ -680,7 +744,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1990</v>
       </c>
@@ -691,7 +755,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2000</v>
       </c>
@@ -702,7 +766,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>2010</v>
       </c>
@@ -713,14 +777,14 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17" thickBot="1">
-      <c r="A14" s="5">
+    <row r="14" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>2018</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="9">
         <v>87</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="10">
         <v>89</v>
       </c>
     </row>
@@ -728,4 +792,145 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C55686-3A17-1043-9E59-D001C6C0EA34}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
+        <v>40.078071999999999</v>
+      </c>
+      <c r="D2" s="2">
+        <v>9.2834470000000007</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="12">
+        <v>1625000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2">
+        <v>26.212313000000002</v>
+      </c>
+      <c r="D3" s="2">
+        <v>127.679153</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="12">
+        <v>1423000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9.9590999999999994</v>
+      </c>
+      <c r="D4" s="2">
+        <v>85.355000000000004</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="12">
+        <v>24926</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2">
+        <v>34.048299999999998</v>
+      </c>
+      <c r="D5" s="2">
+        <v>117.2612</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="12">
+        <v>24129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2">
+        <v>37.596699999999998</v>
+      </c>
+      <c r="D6" s="2">
+        <v>26.112300000000001</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="12">
+        <v>8423</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>